--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VVSS2019\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6005CD62-0DC6-4B09-B4F8-608E2DB0DEE1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3122D658-D68F-461C-9FBD-4734D5709B9A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
   <si>
     <t>do not print this form</t>
   </si>
@@ -236,51 +236,6 @@
   </si>
   <si>
     <t>A07</t>
-  </si>
-  <si>
-    <r>
-      <t>Clase care sunt numite corect, doar ca unele metode ar putea fi numite mai sugestiv.(De exemplu, “</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>afisActivitate</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>” ar fi trebuit redenumita in “</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>afisareRaportActivitate</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
   </si>
   <si>
     <t>A08</t>
@@ -361,8 +316,50 @@
     <t>C01</t>
   </si>
   <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clasa user oare o metoda “isPassword” al carei nume nu este in concordanta cu ceea ce face metoda                                                                               -Parametrul contactRep din metoda "adaugActivitate" nu este utilizat niciunde                                                                   </t>
+  </si>
+  <si>
+    <t>Metodele “save” nu sunt apelate niciodat, ceea ce inseamna ca, atunci cand se face "addContact" sau "addActivity", datele se vor salva doar local si nu si in fisier</t>
+  </si>
+  <si>
+    <t>Cand se citesc contacts din fisier se foloseste ca delimitatator spatiu, dar in fisier, contacts sunt separate prin #</t>
+  </si>
+  <si>
     <r>
-      <t>conditia “</t>
+      <t>Clase sunt numite corect, doar ca unele metode ar putea fi numite mai sugestiv.(De exemplu, “</t>
     </r>
     <r>
       <rPr>
@@ -372,7 +369,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>if (!conflicts)</t>
+      <t>afisActivitate</t>
     </r>
     <r>
       <rPr>
@@ -382,14 +379,28 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>” din clasa RepositoryActivityFile ar trebui pusa in bucla while si prin urmare trebuie renuntat la return din conditie</t>
+      <t>” ar fi trebuit redenumita in “</t>
     </r>
-  </si>
-  <si>
-    <t>C02</t>
-  </si>
-  <si>
-    <t>C03</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>afisareRaportActivitate</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
   </si>
   <si>
     <r>
@@ -399,90 +410,30 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">in metoda “activitiesByName” din clasa </t>
+      <t>in metoda “activitiesByName” din clasa RepositoryActivityFile, bucla while este interminabila pentru ca, oricate elemente am elimina, chiar daca lista ar fii vida, result1.size() &gt;= 0 tot ar fi true</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">RepositoryActivityFile, bucla while este </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">interminabila pentru ca, oricate elemente am </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">elimina, chiar daca lista ar fii vida, result1.size() </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;= 0 tot ar fi true</t>
-    </r>
-  </si>
-  <si>
-    <t>C04</t>
-  </si>
-  <si>
-    <t>C05</t>
-  </si>
-  <si>
-    <t>C06</t>
-  </si>
-  <si>
-    <t>C07</t>
-  </si>
-  <si>
-    <t>C08</t>
-  </si>
-  <si>
-    <t>Validarea telefonul, a email-ului sau a numelui nu ar trebui propagate pana in clasa entity(Contact). Ele trebuie procesate pe un nivel mult mai inalt in aritectura</t>
-  </si>
-  <si>
-    <t>C09</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>Numele variabilelor si al metodelor din clasa main ar trebui sa fie denumite in engleza(sau toate in romana)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clasa user oare o metoda “isPassword” al carei nume nu este in concordanta cu ceea ce face metoda                                                                               -Parametrul contactRep din metoda "adaugActivitate" nu este utilizat niciunde                                                                   </t>
-  </si>
-  <si>
-    <t>In clasa Activity, in metoda “fromString”, for-ul incepe de la 5 si ar trebui sa inceapa de la 4
-- in metoda “activitiesByName” din clasa RepositoryActivityFile ar trebui sa inceapa de la 0</t>
-  </si>
-  <si>
-    <t>Metodele “save” nu sunt apelate niciodat, ceea ce inseamna ca, atunci cand se face "addContact" sau "addActivity", datele se vor salva doar local si nu si in fisier</t>
-  </si>
-  <si>
-    <t>Cand se citesc contacts din fisier se foloseste ca delimitatator spatiu, dar in fisier, contacts sunt separate prin #</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conditia “if (!conflicts)” din clasa RepositoryActivityFile ar trebui pusa in bucla while si prin urmare trebuie renuntat la return din conditie  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In clasa Activity, in metoda “fromString”, for-ul incepe de la 5 si ar trebui sa inceapa de la 4
+</t>
+  </si>
+  <si>
+    <t>in metoda “activitiesByName” din clasa RepositoryActivityFile ar trebui sa inceapa de la 0</t>
+  </si>
+  <si>
+    <t>Numele variabilelor si al metodelor ar trebui sa fie denumite in engleza(sau toate in romana)                                                                                  Numele interfetelor ar trebui sa inceapa cu I si nu numele claselor                                                       Numele atributelor din clasa contact trebuie sa inceapa cu litera mica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Aplicatia ar trebui informeze utilizatorul daca s-a logat cu credentialele corecte. In caz contrar, ar trebui sa nu il lase sa foloseasca aplicatia, ci sa il forteze sa se logheze din nou                                       La schimbarea unei parole, datele trebuie salvate si in fisier</t>
+  </si>
+  <si>
+    <t>Numele fisierelor ar trebui transmis claselor de repository si nu create in clasa repository                  Duration pentru o activitate este mereu o data noua creata si nu calculata in functie de data de inceput si final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validarea telefonul, a email-ului sau a numelui nu ar trebui verificate in clasa entity(Contact). </t>
   </si>
 </sst>
 </file>
@@ -707,7 +658,7 @@
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1031,7 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1322,7 +1273,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1481,7 +1434,7 @@
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
@@ -1490,11 +1443,11 @@
         <v>8</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="58" x14ac:dyDescent="0.35">
@@ -1502,11 +1455,11 @@
         <v>9</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -1514,11 +1467,11 @@
         <v>10</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
@@ -1526,11 +1479,11 @@
         <v>11</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
@@ -1538,11 +1491,11 @@
         <v>12</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
@@ -1551,11 +1504,11 @@
         <v>13</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
@@ -1646,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1668,7 +1621,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -1679,7 +1632,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="23"/>
     </row>
@@ -1721,16 +1674,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="B10" s="9">
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="11"/>
-      <c r="E10" s="11" t="s">
-        <v>59</v>
+      <c r="E10" s="12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -1739,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
@@ -1750,11 +1703,11 @@
         <v>3</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="11" t="s">
-        <v>62</v>
+      <c r="E12" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -1763,11 +1716,11 @@
         <v>4</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -1776,23 +1729,25 @@
         <v>5</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B15" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="9">
@@ -1800,22 +1755,22 @@
         <v>7</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="79" customHeight="1" x14ac:dyDescent="0.35">
@@ -1824,37 +1779,37 @@
         <v>9</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B19" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D19" s="10"/>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" ht="87" x14ac:dyDescent="0.35">
       <c r="B20" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
@@ -1863,28 +1818,32 @@
         <v>12</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B22" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E22" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B23" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="11" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="9">

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VVSS2019\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3122D658-D68F-461C-9FBD-4734D5709B9A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638A284F-67E3-408C-AFCF-53A2431724D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
   <si>
     <t>do not print this form</t>
   </si>
@@ -430,10 +430,13 @@
     <t xml:space="preserve">   Aplicatia ar trebui informeze utilizatorul daca s-a logat cu credentialele corecte. In caz contrar, ar trebui sa nu il lase sa foloseasca aplicatia, ci sa il forteze sa se logheze din nou                                       La schimbarea unei parole, datele trebuie salvate si in fisier</t>
   </si>
   <si>
-    <t>Numele fisierelor ar trebui transmis claselor de repository si nu create in clasa repository                  Duration pentru o activitate este mereu o data noua creata si nu calculata in functie de data de inceput si final</t>
-  </si>
-  <si>
     <t xml:space="preserve">Validarea telefonul, a email-ului sau a numelui nu ar trebui verificate in clasa entity(Contact). </t>
+  </si>
+  <si>
+    <t>Atunci cand se verifica daca datele despre un contact sunt valide, se pune conditia ca ( s!=4 ), dar un contact este caracterizat doar de 3 atribute</t>
+  </si>
+  <si>
+    <t>Numele fisierelor ar trebui transmis claselor de repository si nu create in clasa repository                  Duration pentru o activitate este mereu o data noua creata si nu calculata in functie de data de inceput si final                                                                 Nu se verifica daca data a fost introdusa in formatul corect ci doar se arunca un mesaj generic, daca ceva nu a fost in regula la crearea unei activitati</t>
   </si>
 </sst>
 </file>
@@ -636,6 +639,9 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -657,9 +663,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1000,45 +1003,45 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
@@ -1293,45 +1296,45 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
@@ -1599,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1620,45 +1623,45 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="23"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
@@ -1686,7 +1689,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B11" s="9">
         <f t="shared" ref="B11:B30" si="0">B10+1</f>
         <v>2</v>
@@ -1695,7 +1698,9 @@
         <v>58</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B12" s="9">
@@ -1736,7 +1741,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B15" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1746,7 +1751,7 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -1770,7 +1775,7 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="79" customHeight="1" x14ac:dyDescent="0.35">
@@ -1782,7 +1787,7 @@
         <v>65</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="17" t="s">
         <v>69</v>
       </c>
     </row>
